--- a/artfynd/A 9601-2023.xlsx
+++ b/artfynd/A 9601-2023.xlsx
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408773.5132582865</v>
+        <v>408774</v>
       </c>
       <c r="R2" t="n">
-        <v>6375458.579542317</v>
+        <v>6375459</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
